--- a/NHL Team file save.xlsx
+++ b/NHL Team file save.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwallach/Desktop/Project 3 local/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwallach/Documents/BootCamp/Exploration_SW/Project_3_Mapping_SW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7FEF9-A026-2846-B58A-CABB68A7897E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A531C925-B177-1643-A266-9A9D12BFE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14480" yWindow="-21100" windowWidth="28120" windowHeight="17500" xr2:uid="{FC4CC810-F4A3-F644-A139-E2B86DFD2432}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="17500" xr2:uid="{FC4CC810-F4A3-F644-A139-E2B86DFD2432}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1172,6 +1172,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/NHL Team file save.xlsx
+++ b/NHL Team file save.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwallach/Documents/BootCamp/Exploration_SW/Project_3_Mapping_SW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samwallach/Documents/BootCamp/Exploration_SW/Project_3_Testing/Project_3_Mapping_SW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A531C925-B177-1643-A266-9A9D12BFE1F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E938E3D-281E-3646-AC26-501BF834C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="17500" xr2:uid="{FC4CC810-F4A3-F644-A139-E2B86DFD2432}"/>
   </bookViews>
@@ -1168,11 +1168,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.1640625" customWidth="1"/>
     <col min="18" max="18" width="15.5" customWidth="1"/>
     <col min="19" max="19" width="15.6640625" customWidth="1"/>
@@ -1248,52 +1249,52 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1917</v>
+        <v>1932</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
       <c r="F2">
-        <v>45.496110000000002</v>
+        <v>49.031129999999997</v>
       </c>
       <c r="G2">
-        <v>-73.56944</v>
+        <v>-122.28491</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.80200000000000005</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P2">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>81</v>
@@ -1316,34 +1317,34 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1917</v>
+        <v>1990</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="F3">
-        <v>45.48</v>
+        <v>43.308450000000001</v>
       </c>
       <c r="G3">
-        <v>-73.594830000000002</v>
+        <v>-73.644840000000002</v>
       </c>
       <c r="H3" t="s">
         <v>81</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1358,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P3">
-        <v>1917</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="s">
         <v>81</v>
@@ -1384,52 +1385,52 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1917</v>
+        <v>2009</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="F4">
-        <v>38.626669999999997</v>
+        <v>33.127980000000001</v>
       </c>
       <c r="G4">
-        <v>-90.202500000000001</v>
+        <v>-96.653260000000003</v>
       </c>
       <c r="H4" t="s">
         <v>81</v>
       </c>
       <c r="I4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.51400000000000001</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.55600000000000005</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P4">
-        <v>1935</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="s">
         <v>81</v>
@@ -1452,46 +1453,46 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1917</v>
+        <v>1993</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F5">
-        <v>43.643329999999999</v>
+        <v>33.807780000000001</v>
       </c>
       <c r="G5">
-        <v>-79.379170000000002</v>
+        <v>-117.87667</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="J5">
-        <v>0.51800000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="K5">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="L5">
-        <v>0.67900000000000005</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>80</v>
@@ -1520,40 +1521,40 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1917</v>
+        <v>1979</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="F6">
-        <v>45.296939999999999</v>
+        <v>33.531939999999999</v>
       </c>
       <c r="G6">
-        <v>-75.927220000000005</v>
+        <v>-112.26111</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="J6">
-        <v>0.53400000000000003</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1562,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P6">
-        <v>1934</v>
+        <v>2022</v>
       </c>
       <c r="Q6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="R6">
         <v>38.626669999999997</v>
@@ -1588,34 +1589,34 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1917</v>
+        <v>1972</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F7">
-        <v>43.643329999999999</v>
+        <v>33.757440000000003</v>
       </c>
       <c r="G7">
-        <v>-79.379170000000002</v>
+        <v>-84.395930000000007</v>
       </c>
       <c r="H7" t="s">
         <v>81</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>0.45</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1633,10 +1634,10 @@
         <v>98</v>
       </c>
       <c r="P7">
-        <v>1919</v>
+        <v>1980</v>
       </c>
       <c r="Q7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="R7">
         <v>43.643329999999999</v>
@@ -1656,34 +1657,34 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1919</v>
+        <v>1995</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="F8">
-        <v>46.49</v>
+        <v>33.992229999999999</v>
       </c>
       <c r="G8">
-        <v>-71.135099999999994</v>
+        <v>-84.092259999999996</v>
       </c>
       <c r="H8" t="s">
         <v>81</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1698,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P8">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="R8">
         <v>43.152500000000003</v>
@@ -1724,40 +1725,40 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1919</v>
+        <v>1999</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="F9">
-        <v>40.75056</v>
+        <v>33.757440000000003</v>
       </c>
       <c r="G9">
-        <v>-73.993610000000004</v>
+        <v>-84.395930000000007</v>
       </c>
       <c r="H9" t="s">
         <v>81</v>
       </c>
       <c r="I9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>0.40600000000000003</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.217</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1766,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="P9">
-        <v>1942</v>
+        <v>2011</v>
       </c>
       <c r="Q9" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1792,34 +1793,34 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1919</v>
+        <v>1984</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>229</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="F10">
-        <v>43.643329999999999</v>
+        <v>35.372999999999998</v>
       </c>
       <c r="G10">
-        <v>-79.379170000000002</v>
+        <v>-119.01139999999999</v>
       </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.496</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1834,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P10">
-        <v>1927</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="R10">
         <v>43.643329999999999</v>
@@ -1860,34 +1861,34 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1920</v>
+        <v>1972</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="F11">
-        <v>43.152500000000003</v>
+        <v>44.188740000000003</v>
       </c>
       <c r="G11">
-        <v>-79.5047</v>
+        <v>-77.381990000000002</v>
       </c>
       <c r="H11" t="s">
         <v>81</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1902,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P11">
-        <v>1925</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="R11">
         <v>40.75056</v>
@@ -1996,52 +1997,52 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1924</v>
+        <v>2001</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>172</v>
       </c>
       <c r="F13">
-        <v>45.496110000000002</v>
+        <v>41.173789999999997</v>
       </c>
       <c r="G13">
-        <v>-73.56944</v>
+        <v>-73.185479999999998</v>
       </c>
       <c r="H13" t="s">
         <v>81</v>
       </c>
       <c r="I13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.50900000000000001</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P13">
-        <v>1935</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="s">
         <v>81</v>
@@ -2064,19 +2065,19 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>40.75056</v>
@@ -2088,16 +2089,16 @@
         <v>81</v>
       </c>
       <c r="I14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J14">
-        <v>0.40899999999999997</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.217</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2106,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P14">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="Q14" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="R14">
         <v>40.75056</v>
@@ -2132,52 +2133,52 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1925</v>
+        <v>1970</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>39.957900000000002</v>
+        <v>42.875</v>
       </c>
       <c r="G15">
-        <v>-75.211699999999993</v>
+        <v>-78.876390000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="J15">
-        <v>0.33</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="K15">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="M15">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P15">
-        <v>1931</v>
+        <v>2022</v>
       </c>
       <c r="Q15" t="s">
         <v>81</v>
@@ -2200,55 +2201,55 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1925</v>
+        <v>1972</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>40.447479999999999</v>
+        <v>51.037500000000001</v>
       </c>
       <c r="G16">
-        <v>-79.949020000000004</v>
+        <v>-114.05194</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="J16">
-        <v>0.37</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P16">
-        <v>1930</v>
+        <v>2022</v>
       </c>
       <c r="Q16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="R16">
         <v>39.957900000000002</v>
@@ -2268,34 +2269,34 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1926</v>
+        <v>1977</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="F17">
-        <v>42.551259999999999</v>
+        <v>51.037500000000001</v>
       </c>
       <c r="G17">
-        <v>-83.217860000000002</v>
+        <v>-114.05194</v>
       </c>
       <c r="H17" t="s">
         <v>81</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.435</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2310,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P17">
-        <v>1930</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="R17">
         <v>42.551259999999999</v>
@@ -2336,55 +2337,55 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1926</v>
+        <v>1970</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="F18">
-        <v>41.880560000000003</v>
+        <v>37.750509999999998</v>
       </c>
       <c r="G18">
-        <v>-87.674170000000004</v>
+        <v>-122.20253</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18">
+        <v>1976</v>
+      </c>
+      <c r="Q18" t="s">
         <v>97</v>
-      </c>
-      <c r="J18">
-        <v>0.499</v>
-      </c>
-      <c r="K18">
-        <v>63</v>
-      </c>
-      <c r="L18">
-        <v>0.65</v>
-      </c>
-      <c r="M18">
-        <v>13</v>
-      </c>
-      <c r="N18">
-        <v>6</v>
-      </c>
-      <c r="O18" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18">
-        <v>2022</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>81</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2404,46 +2405,46 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1926</v>
+        <v>1979</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F19">
-        <v>42.551259999999999</v>
+        <v>35.803330000000003</v>
       </c>
       <c r="G19">
-        <v>-83.217860000000002</v>
+        <v>-78.721940000000004</v>
       </c>
       <c r="H19" t="s">
         <v>79</v>
       </c>
       <c r="I19">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="J19">
-        <v>0.53100000000000003</v>
+        <v>0.501</v>
       </c>
       <c r="K19">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="L19">
-        <v>0.66</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="O19" t="s">
         <v>80</v>
@@ -2472,52 +2473,52 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1926</v>
+        <v>1990</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F20">
-        <v>40.75056</v>
+        <v>35.205269999999999</v>
       </c>
       <c r="G20">
-        <v>-73.993610000000004</v>
+        <v>-80.794079999999994</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I20">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.51800000000000002</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.63900000000000001</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P20">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="s">
         <v>81</v>
@@ -2540,55 +2541,55 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>42.551259999999999</v>
+        <v>41.880560000000003</v>
       </c>
       <c r="G21">
-        <v>-83.217860000000002</v>
+        <v>-87.674170000000004</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="J21">
-        <v>0.46200000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P21">
-        <v>1932</v>
+        <v>2022</v>
       </c>
       <c r="Q21" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="R21">
         <v>42.551259999999999</v>
@@ -2608,34 +2609,34 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1967</v>
+        <v>1995</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="F22">
-        <v>37.750509999999998</v>
+        <v>39.098559999999999</v>
       </c>
       <c r="G22">
-        <v>-122.20253</v>
+        <v>-84.502700000000004</v>
       </c>
       <c r="H22" t="s">
         <v>81</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.38500000000000001</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2650,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P22">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="R22">
         <v>37.750509999999998</v>
@@ -2682,34 +2683,34 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F23">
-        <v>44.944719999999997</v>
+        <v>41.144300000000001</v>
       </c>
       <c r="G23">
-        <v>-93.101110000000006</v>
+        <v>-81.353800000000007</v>
       </c>
       <c r="H23" t="s">
         <v>81</v>
       </c>
       <c r="I23">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J23">
-        <v>0.44900000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.182</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2718,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P23">
-        <v>1993</v>
+        <v>1978</v>
       </c>
       <c r="Q23" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="R23">
         <v>32.790559999999999</v>
@@ -2744,40 +2745,40 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1967</v>
+        <v>1994</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C24" t="s">
         <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="F24">
-        <v>41.144300000000001</v>
+        <v>41.497219999999999</v>
       </c>
       <c r="G24">
-        <v>-81.353800000000007</v>
+        <v>-81.686449999999994</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
       </c>
       <c r="I24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.34899999999999998</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2786,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="P24">
-        <v>1978</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="s">
         <v>81</v>
@@ -2812,52 +2813,52 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1967</v>
+        <v>2022</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="F25">
-        <v>32.790559999999999</v>
+        <v>33.779879999999999</v>
       </c>
       <c r="G25">
-        <v>-96.810280000000006</v>
+        <v>-116.3394</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I25">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.52200000000000002</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P25">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="s">
         <v>81</v>
@@ -2880,46 +2881,46 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1967</v>
+        <v>1979</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>34.043059999999997</v>
+        <v>39.748609999999999</v>
       </c>
       <c r="G26">
-        <v>-118.26721999999999</v>
+        <v>-105.00749999999999</v>
       </c>
       <c r="H26" t="s">
         <v>82</v>
       </c>
       <c r="I26">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J26">
-        <v>0.497</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="K26">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="L26">
-        <v>0.57099999999999995</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="M26">
         <v>3</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>80</v>
@@ -2948,52 +2949,52 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1967</v>
+        <v>2018</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="F27">
-        <v>39.901110000000003</v>
+        <v>40.444710000000001</v>
       </c>
       <c r="G27">
-        <v>-75.171940000000006</v>
+        <v>-104.98831</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I27">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.56899999999999995</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P27">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="s">
         <v>81</v>
@@ -3016,55 +3017,55 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1967</v>
+        <v>1976</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="F28">
-        <v>40.439439999999998</v>
+        <v>39.443399999999997</v>
       </c>
       <c r="G28">
-        <v>-79.989170000000001</v>
+        <v>-105.0121</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I28">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J28">
-        <v>0.52300000000000002</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="K28">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>0.66100000000000003</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P28">
-        <v>2022</v>
+        <v>1982</v>
       </c>
       <c r="Q28" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="R28">
         <v>0</v>
@@ -3084,46 +3085,46 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1967</v>
+        <v>2000</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="F29">
-        <v>38.626669999999997</v>
+        <v>39.969279999999998</v>
       </c>
       <c r="G29">
-        <v>-90.202500000000001</v>
+        <v>-83.006110000000007</v>
       </c>
       <c r="H29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I29">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="J29">
-        <v>0.53600000000000003</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="K29">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="L29">
-        <v>0.80400000000000005</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="s">
         <v>80</v>
@@ -3152,55 +3153,55 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="F30">
-        <v>37.750509999999998</v>
+        <v>32.790559999999999</v>
       </c>
       <c r="G30">
-        <v>-122.20253</v>
+        <v>-96.810280000000006</v>
       </c>
       <c r="H30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="J30">
-        <v>0.32300000000000001</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P30">
-        <v>1976</v>
+        <v>2022</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="R30">
         <v>41.144300000000001</v>
@@ -3220,55 +3221,55 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1970</v>
+        <v>1926</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="F31">
-        <v>42.875</v>
+        <v>42.551259999999999</v>
       </c>
       <c r="G31">
-        <v>-78.876390000000001</v>
+        <v>-83.217860000000002</v>
       </c>
       <c r="H31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I31">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>0.52900000000000003</v>
+        <v>0.435</v>
       </c>
       <c r="K31">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>0.54700000000000004</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P31">
-        <v>2022</v>
+        <v>1930</v>
       </c>
       <c r="Q31" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="R31">
         <v>0</v>
@@ -3288,55 +3289,55 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>1970</v>
+        <v>1930</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="F32">
-        <v>49.27778</v>
+        <v>42.551259999999999</v>
       </c>
       <c r="G32">
-        <v>-123.10889</v>
+        <v>-83.217860000000002</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I32">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>0.49199999999999999</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="K32">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P32">
-        <v>2022</v>
+        <v>1932</v>
       </c>
       <c r="Q32" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3356,55 +3357,55 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1972</v>
+        <v>1926</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="F33">
-        <v>33.757440000000003</v>
+        <v>42.551259999999999</v>
       </c>
       <c r="G33">
-        <v>-84.395930000000007</v>
+        <v>-83.217860000000002</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I33">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="J33">
-        <v>0.50600000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O33" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P33">
-        <v>1980</v>
+        <v>2022</v>
       </c>
       <c r="Q33" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="R33">
         <v>51.037500000000001</v>
@@ -3424,46 +3425,46 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F34">
-        <v>51.037500000000001</v>
+        <v>53.571390000000001</v>
       </c>
       <c r="G34">
-        <v>-114.05194</v>
+        <v>-113.45611</v>
       </c>
       <c r="H34" t="s">
         <v>82</v>
       </c>
       <c r="I34">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J34">
-        <v>0.53900000000000003</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="K34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L34">
-        <v>0.60799999999999998</v>
+        <v>0.56799999999999995</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O34" t="s">
         <v>80</v>
@@ -3492,52 +3493,52 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1972</v>
+        <v>1998</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F35">
-        <v>40.682659999999998</v>
+        <v>26.441320000000001</v>
       </c>
       <c r="G35">
-        <v>-73.975229999999996</v>
+        <v>-81.777029999999996</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I35">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.51500000000000001</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>0.54900000000000004</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P35">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="s">
         <v>81</v>
@@ -3560,55 +3561,55 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>1974</v>
+        <v>1993</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="F36">
-        <v>39.091940000000001</v>
+        <v>26.158329999999999</v>
       </c>
       <c r="G36">
-        <v>-94.6053</v>
+        <v>-80.325559999999996</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I36">
+        <v>30</v>
+      </c>
+      <c r="J36">
+        <v>0.52</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+      <c r="M36">
         <v>2</v>
       </c>
-      <c r="J36">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P36">
-        <v>1976</v>
+        <v>2022</v>
       </c>
       <c r="Q36" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="R36">
         <v>39.443399999999997</v>
@@ -3628,52 +3629,52 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>1974</v>
+        <v>1985</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="F37">
-        <v>40.733609999999999</v>
+        <v>41.116399999999999</v>
       </c>
       <c r="G37">
-        <v>-74.171109999999999</v>
+        <v>-85.122900000000001</v>
       </c>
       <c r="H37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I37">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>0.49299999999999999</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P37">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="s">
         <v>81</v>
@@ -3696,52 +3697,52 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1974</v>
+        <v>1996</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="F38">
-        <v>38.898060000000001</v>
+        <v>42.962910000000001</v>
       </c>
       <c r="G38">
-        <v>-77.020830000000004</v>
+        <v>-85.670019999999994</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I38">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0.53300000000000003</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0.65300000000000002</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P38">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="s">
         <v>81</v>
@@ -3764,34 +3765,34 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1976</v>
+        <v>1987</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F39">
-        <v>39.443399999999997</v>
+        <v>34.853099999999998</v>
       </c>
       <c r="G39">
-        <v>-105.0121</v>
+        <v>-82.389700000000005</v>
       </c>
       <c r="H39" t="s">
         <v>81</v>
       </c>
       <c r="I39">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3806,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P39">
-        <v>1982</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="R39">
         <v>40.733609999999999</v>
@@ -3832,34 +3833,34 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>1979</v>
+        <v>1920</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F40">
-        <v>41.768630000000002</v>
+        <v>43.152500000000003</v>
       </c>
       <c r="G40">
-        <v>-72.676550000000006</v>
+        <v>-79.5047</v>
       </c>
       <c r="H40" t="s">
         <v>81</v>
       </c>
       <c r="I40">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>0.438</v>
+        <v>0.377</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3877,10 +3878,10 @@
         <v>98</v>
       </c>
       <c r="P40">
-        <v>1997</v>
+        <v>1925</v>
       </c>
       <c r="Q40" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="R40">
         <v>35.803330000000003</v>
@@ -3906,28 +3907,28 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41">
-        <v>46.830959999999997</v>
+        <v>41.768630000000002</v>
       </c>
       <c r="G41">
-        <v>-71.245900000000006</v>
+        <v>-72.676550000000006</v>
       </c>
       <c r="H41" t="s">
         <v>81</v>
       </c>
       <c r="I41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J41">
-        <v>0.45900000000000002</v>
+        <v>0.438</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3945,10 +3946,10 @@
         <v>98</v>
       </c>
       <c r="P41">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="Q41" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="R41">
         <v>39.748609999999999</v>
@@ -3968,40 +3969,40 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1979</v>
+        <v>1926</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="F42">
-        <v>33.531939999999999</v>
+        <v>41.768630000000002</v>
       </c>
       <c r="G42">
-        <v>-112.26111</v>
+        <v>-72.676550000000006</v>
       </c>
       <c r="H42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.47399999999999998</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.45500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -4010,10 +4011,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P42">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="s">
         <v>81</v>
@@ -4036,52 +4037,52 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="B43" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="F43">
-        <v>35.803330000000003</v>
+        <v>36.019840000000002</v>
       </c>
       <c r="G43">
-        <v>-78.721940000000004</v>
+        <v>-115.0797</v>
       </c>
       <c r="H43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I43">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0.501</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>0.40899999999999997</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P43">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="s">
         <v>81</v>
@@ -4104,52 +4105,52 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>1979</v>
+        <v>1938</v>
       </c>
       <c r="B44" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="F44">
-        <v>39.748609999999999</v>
+        <v>40.286879999999996</v>
       </c>
       <c r="G44">
-        <v>-105.00749999999999</v>
+        <v>-76.667619999999999</v>
       </c>
       <c r="H44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.53700000000000003</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>0.63600000000000001</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P44">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="s">
         <v>81</v>
@@ -4172,52 +4173,52 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>1979</v>
+        <v>1997</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="F45">
-        <v>53.571390000000001</v>
+        <v>43.615169999999999</v>
       </c>
       <c r="G45">
-        <v>-113.45611</v>
+        <v>-116.20180999999999</v>
       </c>
       <c r="H45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I45">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>0.52800000000000002</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>0.56799999999999995</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P45">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="s">
         <v>81</v>
@@ -4240,34 +4241,34 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1979</v>
+        <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E46" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="F46">
-        <v>49.892780000000002</v>
+        <v>39.828229999999998</v>
       </c>
       <c r="G46">
-        <v>-97.143609999999995</v>
+        <v>-86.133619999999993</v>
       </c>
       <c r="H46" t="s">
         <v>81</v>
       </c>
       <c r="I46">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.443</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4282,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P46">
-        <v>1996</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="R46">
         <v>33.531939999999999</v>
@@ -4308,52 +4309,52 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1991</v>
+        <v>2021</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>165</v>
       </c>
       <c r="F47">
-        <v>37.33278</v>
+        <v>41.681930000000001</v>
       </c>
       <c r="G47">
-        <v>-121.90111</v>
+        <v>-91.560980000000001</v>
       </c>
       <c r="H47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I47">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0.65600000000000003</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P47">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="s">
         <v>81</v>
@@ -4376,52 +4377,52 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="F48">
-        <v>45.296939999999999</v>
+        <v>41.593269999999997</v>
       </c>
       <c r="G48">
-        <v>-75.927220000000005</v>
+        <v>-93.619540000000001</v>
       </c>
       <c r="H48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I48">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>0.505</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>0.51600000000000001</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48">
         <v>0</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P48">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="s">
         <v>81</v>
@@ -4447,49 +4448,49 @@
         <v>1992</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="F49">
-        <v>27.942779999999999</v>
+        <v>30.326440000000002</v>
       </c>
       <c r="G49">
-        <v>-82.451939999999993</v>
+        <v>-81.643129999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I49">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>0.51900000000000002</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>0.48399999999999999</v>
+        <v>0</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P49">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="s">
         <v>81</v>
@@ -4512,52 +4513,52 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="F50">
-        <v>33.807780000000001</v>
+        <v>42.25441</v>
       </c>
       <c r="G50">
-        <v>-117.87667</v>
+        <v>-85.533730000000006</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.52400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>0.46700000000000003</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P50">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="s">
         <v>81</v>
@@ -4580,52 +4581,52 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>1993</v>
+        <v>2009</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="F51">
-        <v>26.158329999999999</v>
+        <v>39.040640000000003</v>
       </c>
       <c r="G51">
-        <v>-80.325559999999996</v>
+        <v>-94.356020000000001</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I51">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P51">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="s">
         <v>81</v>
@@ -4648,34 +4649,34 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1996</v>
+        <v>1974</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F52">
-        <v>33.531939999999999</v>
+        <v>39.091940000000001</v>
       </c>
       <c r="G52">
-        <v>-112.26111</v>
+        <v>-94.6053</v>
       </c>
       <c r="H52" t="s">
         <v>81</v>
       </c>
       <c r="I52">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J52">
-        <v>0.52500000000000002</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -4693,10 +4694,10 @@
         <v>98</v>
       </c>
       <c r="P52">
-        <v>2014</v>
+        <v>1976</v>
       </c>
       <c r="Q52" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="R52">
         <v>33.531939999999999</v>
@@ -4716,52 +4717,52 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1998</v>
+        <v>1969</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="F53">
-        <v>36.159170000000003</v>
+        <v>45.556739999999998</v>
       </c>
       <c r="G53">
-        <v>-86.77861</v>
+        <v>-73.719579999999993</v>
       </c>
       <c r="H53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I53">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.55900000000000005</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
         <v>0</v>
       </c>
       <c r="O53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P53">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="s">
         <v>81</v>
@@ -4784,40 +4785,40 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>240</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="F54">
-        <v>49.892780000000002</v>
+        <v>40.603250000000003</v>
       </c>
       <c r="G54">
-        <v>-97.143609999999995</v>
+        <v>-75.47148</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>0.29199999999999998</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4826,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P54">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q54" t="s">
         <v>81</v>
@@ -4852,55 +4853,55 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>1999</v>
+        <v>1967</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>33.757440000000003</v>
+        <v>34.043059999999997</v>
       </c>
       <c r="G55">
-        <v>-84.395930000000007</v>
+        <v>-118.26721999999999</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I55">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J55">
-        <v>0.44700000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>0.57099999999999995</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O55" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="P55">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="Q55" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="R55">
         <v>49.892780000000002</v>
@@ -4920,40 +4921,40 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>212</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="F56">
-        <v>39.969279999999998</v>
+        <v>43.65605</v>
       </c>
       <c r="G56">
-        <v>-83.006110000000007</v>
+        <v>-70.257220000000004</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I56">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.48499999999999999</v>
+        <v>0</v>
       </c>
       <c r="K56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0.26100000000000001</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4962,10 +4963,10 @@
         <v>0</v>
       </c>
       <c r="O56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P56">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q56" t="s">
         <v>81</v>
@@ -4988,40 +4989,40 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="F57">
-        <v>44.944719999999997</v>
+        <v>49.886240000000001</v>
       </c>
       <c r="G57">
-        <v>-93.101110000000006</v>
+        <v>-97.33211</v>
       </c>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J57">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>0.56499999999999995</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -5030,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P57">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q57" t="s">
         <v>81</v>
@@ -5056,52 +5057,52 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2016</v>
+        <v>1970</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="F58">
-        <v>36.102780000000003</v>
+        <v>43.042729999999999</v>
       </c>
       <c r="G58">
-        <v>-115.17833</v>
+        <v>-87.915700000000001</v>
       </c>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P58">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q58" t="s">
         <v>81</v>
@@ -5124,40 +5125,40 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2021</v>
+        <v>1967</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="F59">
-        <v>47.622</v>
+        <v>44.944719999999997</v>
       </c>
       <c r="G59">
-        <v>-122.354</v>
+        <v>-93.101110000000006</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J59">
-        <v>0.498</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -5166,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="P59">
-        <v>2022</v>
+        <v>1993</v>
       </c>
       <c r="Q59" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="R59">
         <v>0</v>
@@ -5192,40 +5193,40 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="F60">
-        <v>40.703220000000002</v>
+        <v>44.944719999999997</v>
       </c>
       <c r="G60">
-        <v>-111.94837</v>
+        <v>-93.101110000000006</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -5234,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="O60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q60" t="s">
         <v>81</v>
@@ -5260,52 +5261,52 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1981</v>
+        <v>1917</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>40.065710000000003</v>
+        <v>45.496110000000002</v>
       </c>
       <c r="G61">
-        <v>-80.722440000000006</v>
+        <v>-73.56944</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q61" t="s">
         <v>81</v>
@@ -5328,52 +5329,52 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>1985</v>
+        <v>1924</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="F62">
-        <v>41.116399999999999</v>
+        <v>45.496110000000002</v>
       </c>
       <c r="G62">
-        <v>-85.122900000000001</v>
+        <v>-73.56944</v>
       </c>
       <c r="H62" t="s">
         <v>81</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="Q62" t="s">
         <v>81</v>
@@ -5396,34 +5397,34 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1987</v>
+        <v>1917</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>87</v>
       </c>
       <c r="F63">
-        <v>34.853099999999998</v>
+        <v>45.48</v>
       </c>
       <c r="G63">
-        <v>-82.389700000000005</v>
+        <v>-73.594830000000002</v>
       </c>
       <c r="H63" t="s">
         <v>81</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -5438,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1917</v>
       </c>
       <c r="Q63" t="s">
         <v>81</v>
@@ -5464,52 +5465,52 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>1989</v>
+        <v>1998</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
       <c r="D64" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E64" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="F64">
-        <v>43.65605</v>
+        <v>36.159170000000003</v>
       </c>
       <c r="G64">
-        <v>-70.257220000000004</v>
+        <v>-86.77861</v>
       </c>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64">
         <v>0</v>
       </c>
       <c r="O64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q64" t="s">
         <v>81</v>
@@ -5532,52 +5533,52 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1990</v>
+        <v>1974</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="F65">
-        <v>43.308450000000001</v>
+        <v>40.733609999999999</v>
       </c>
       <c r="G65">
-        <v>-73.644840000000002</v>
+        <v>-74.171109999999999</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q65" t="s">
         <v>81</v>
@@ -5600,34 +5601,34 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>1991</v>
+        <v>1925</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="F66">
-        <v>40.33569</v>
+        <v>40.75056</v>
       </c>
       <c r="G66">
-        <v>-75.921660000000003</v>
+        <v>-73.993610000000004</v>
       </c>
       <c r="H66" t="s">
         <v>81</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -5642,13 +5643,13 @@
         <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="Q66" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="R66">
         <v>0</v>
@@ -5668,52 +5669,52 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1991</v>
+        <v>1972</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C67" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="F67">
-        <v>41.651730000000001</v>
+        <v>40.682659999999998</v>
       </c>
       <c r="G67">
-        <v>-83.535129999999995</v>
+        <v>-73.975229999999996</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q67" t="s">
         <v>81</v>
@@ -5736,52 +5737,52 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1992</v>
+        <v>1926</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="F68">
-        <v>30.326440000000002</v>
+        <v>40.75056</v>
       </c>
       <c r="G68">
-        <v>-81.643129999999999</v>
+        <v>-73.993610000000004</v>
       </c>
       <c r="H68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q68" t="s">
         <v>81</v>
@@ -5804,25 +5805,25 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1992</v>
+        <v>2018</v>
       </c>
       <c r="B69" t="s">
         <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D69" t="s">
         <v>81</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="F69">
-        <v>36.153329999999997</v>
+        <v>47.560980000000001</v>
       </c>
       <c r="G69">
-        <v>-95.995090000000005</v>
+        <v>-52.711950000000002</v>
       </c>
       <c r="H69" t="s">
         <v>81</v>
@@ -5872,25 +5873,25 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="B70" t="s">
         <v>199</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D70" t="s">
         <v>81</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F70">
-        <v>37.683819999999997</v>
+        <v>36.853409999999997</v>
       </c>
       <c r="G70">
-        <v>-97.33032</v>
+        <v>-76.286029999999997</v>
       </c>
       <c r="H70" t="s">
         <v>81</v>
@@ -5940,34 +5941,34 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1993</v>
+        <v>1967</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="D71" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="F71">
-        <v>32.866070000000001</v>
+        <v>37.750509999999998</v>
       </c>
       <c r="G71">
-        <v>-80.020740000000004</v>
+        <v>-122.20253</v>
       </c>
       <c r="H71" t="s">
         <v>81</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -5982,13 +5983,13 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>1970</v>
       </c>
       <c r="Q71" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="R71">
         <v>0</v>
@@ -6008,25 +6009,25 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="D72" t="s">
         <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F72">
-        <v>33.992229999999999</v>
+        <v>34.07347</v>
       </c>
       <c r="G72">
-        <v>-84.092259999999996</v>
+        <v>-117.56458000000001</v>
       </c>
       <c r="H72" t="s">
         <v>81</v>
@@ -6076,25 +6077,25 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="B73" t="s">
         <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D73" t="s">
         <v>81</v>
       </c>
       <c r="E73" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="F73">
-        <v>39.098559999999999</v>
+        <v>28.53933</v>
       </c>
       <c r="G73">
-        <v>-84.502700000000004</v>
+        <v>-81.383359999999996</v>
       </c>
       <c r="H73" t="s">
         <v>81</v>
@@ -6144,34 +6145,34 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>1995</v>
+        <v>1917</v>
       </c>
       <c r="B74" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="F74">
-        <v>36.853409999999997</v>
+        <v>45.296939999999999</v>
       </c>
       <c r="G74">
-        <v>-76.286029999999997</v>
+        <v>-75.927220000000005</v>
       </c>
       <c r="H74" t="s">
         <v>81</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6186,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="O74" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1934</v>
       </c>
       <c r="Q74" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="R74">
         <v>0</v>
@@ -6212,52 +6213,52 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="D75" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="F75">
-        <v>43.615169999999999</v>
+        <v>45.296939999999999</v>
       </c>
       <c r="G75">
-        <v>-116.20180999999999</v>
+        <v>-75.927220000000005</v>
       </c>
       <c r="H75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>0.505</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q75" t="s">
         <v>81</v>
@@ -6280,52 +6281,52 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1998</v>
+        <v>1967</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C76" t="s">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="F76">
-        <v>26.441320000000001</v>
+        <v>39.901110000000003</v>
       </c>
       <c r="G76">
-        <v>-81.777029999999996</v>
+        <v>-75.171940000000006</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="K76">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q76" t="s">
         <v>81</v>
@@ -6348,40 +6349,40 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1999</v>
+        <v>1925</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="F77">
-        <v>42.25441</v>
+        <v>39.957900000000002</v>
       </c>
       <c r="G77">
-        <v>-85.533730000000006</v>
+        <v>-75.211699999999993</v>
       </c>
       <c r="H77" t="s">
         <v>81</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -6390,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="O77" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="Q77" t="s">
         <v>81</v>
@@ -6416,34 +6417,34 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2008</v>
+        <v>1996</v>
       </c>
       <c r="B78" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F78">
-        <v>44.08878</v>
+        <v>33.531939999999999</v>
       </c>
       <c r="G78">
-        <v>-103.22367</v>
+        <v>-112.26111</v>
       </c>
       <c r="H78" t="s">
         <v>81</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -6458,13 +6459,13 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>2014</v>
       </c>
       <c r="Q78" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R78">
         <v>0</v>
@@ -6484,52 +6485,52 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>2009</v>
+        <v>1967</v>
       </c>
       <c r="B79" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="F79">
-        <v>33.127980000000001</v>
+        <v>40.439439999999998</v>
       </c>
       <c r="G79">
-        <v>-96.653260000000003</v>
+        <v>-79.989170000000001</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="K79">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q79" t="s">
         <v>81</v>
@@ -6552,34 +6553,34 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2009</v>
+        <v>1925</v>
       </c>
       <c r="B80" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="D80" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="F80">
-        <v>39.040640000000003</v>
+        <v>40.447479999999999</v>
       </c>
       <c r="G80">
-        <v>-94.356020000000001</v>
+        <v>-79.949020000000004</v>
       </c>
       <c r="H80" t="s">
         <v>81</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -6594,13 +6595,13 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="Q80" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="R80">
         <v>0</v>
@@ -6620,25 +6621,25 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2012</v>
+        <v>1987</v>
       </c>
       <c r="B81" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="D81" t="s">
         <v>81</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="F81">
-        <v>28.53933</v>
+        <v>41.824199999999998</v>
       </c>
       <c r="G81">
-        <v>-81.383359999999996</v>
+        <v>-71.416259999999994</v>
       </c>
       <c r="H81" t="s">
         <v>81</v>
@@ -6688,34 +6689,34 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>2014</v>
+        <v>1919</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F82">
-        <v>39.828229999999998</v>
+        <v>46.49</v>
       </c>
       <c r="G82">
-        <v>-86.133619999999993</v>
+        <v>-71.135099999999994</v>
       </c>
       <c r="H82" t="s">
         <v>81</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -6730,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="Q82" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -6756,34 +6757,34 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>2017</v>
+        <v>1979</v>
       </c>
       <c r="B83" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="F83">
-        <v>42.264989999999997</v>
+        <v>46.830959999999997</v>
       </c>
       <c r="G83">
-        <v>-71.796620000000004</v>
+        <v>-71.245900000000006</v>
       </c>
       <c r="H83" t="s">
         <v>81</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -6798,13 +6799,13 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="Q83" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="R83">
         <v>0</v>
@@ -6824,25 +6825,25 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="B84" t="s">
         <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D84" t="s">
         <v>81</v>
       </c>
       <c r="E84" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="F84">
-        <v>47.560980000000001</v>
+        <v>44.08878</v>
       </c>
       <c r="G84">
-        <v>-52.711950000000002</v>
+        <v>-103.22367</v>
       </c>
       <c r="H84" t="s">
         <v>81</v>
@@ -6892,25 +6893,25 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>2021</v>
+        <v>1991</v>
       </c>
       <c r="B85" t="s">
         <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D85" t="s">
         <v>81</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="F85">
-        <v>41.681930000000001</v>
+        <v>40.33569</v>
       </c>
       <c r="G85">
-        <v>-91.560980000000001</v>
+        <v>-75.921660000000003</v>
       </c>
       <c r="H85" t="s">
         <v>81</v>
@@ -6960,25 +6961,25 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>2021</v>
+        <v>1956</v>
       </c>
       <c r="B86" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
         <v>81</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F86">
-        <v>46.32235</v>
+        <v>43.15437</v>
       </c>
       <c r="G86">
-        <v>-72.589669999999998</v>
+        <v>-77.609700000000004</v>
       </c>
       <c r="H86" t="s">
         <v>81</v>
@@ -7028,25 +7029,25 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>2022</v>
+        <v>1995</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
         <v>81</v>
       </c>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="F87">
-        <v>32.074669999999998</v>
+        <v>42.271070000000002</v>
       </c>
       <c r="G87">
-        <v>-81.110309999999998</v>
+        <v>-89.094859999999997</v>
       </c>
       <c r="H87" t="s">
         <v>81</v>
@@ -7096,25 +7097,25 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>1926</v>
+        <v>2000</v>
       </c>
       <c r="B88" t="s">
         <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D88" t="s">
         <v>81</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F88">
-        <v>41.768630000000002</v>
+        <v>32.756010000000003</v>
       </c>
       <c r="G88">
-        <v>-72.676550000000006</v>
+        <v>-117.20923999999999</v>
       </c>
       <c r="H88" t="s">
         <v>81</v>
@@ -7164,25 +7165,25 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>1932</v>
+        <v>1996</v>
       </c>
       <c r="B89" t="s">
         <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
         <v>81</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F89">
-        <v>49.031129999999997</v>
+        <v>37.33278</v>
       </c>
       <c r="G89">
-        <v>-122.28491</v>
+        <v>-121.90111</v>
       </c>
       <c r="H89" t="s">
         <v>81</v>
@@ -7232,52 +7233,52 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1938</v>
+        <v>1991</v>
       </c>
       <c r="B90" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="F90">
-        <v>40.286879999999996</v>
+        <v>37.33278</v>
       </c>
       <c r="G90">
-        <v>-76.667619999999999</v>
+        <v>-121.90111</v>
       </c>
       <c r="H90" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="K90">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90">
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q90" t="s">
         <v>81</v>
@@ -7300,25 +7301,25 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>1956</v>
+        <v>2022</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D91" t="s">
         <v>81</v>
       </c>
       <c r="E91" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="F91">
-        <v>43.15437</v>
+        <v>32.074669999999998</v>
       </c>
       <c r="G91">
-        <v>-77.609700000000004</v>
+        <v>-81.110309999999998</v>
       </c>
       <c r="H91" t="s">
         <v>81</v>
@@ -7368,40 +7369,40 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>1969</v>
+        <v>2021</v>
       </c>
       <c r="B92" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="D92" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>70</v>
       </c>
       <c r="F92">
-        <v>45.556739999999998</v>
+        <v>47.622</v>
       </c>
       <c r="G92">
-        <v>-73.719579999999993</v>
+        <v>-122.354</v>
       </c>
       <c r="H92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>0.498</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -7410,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q92" t="s">
         <v>81</v>
@@ -7436,25 +7437,25 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>1970</v>
+        <v>1993</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D93" t="s">
         <v>81</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="F93">
-        <v>43.042729999999999</v>
+        <v>32.866070000000001</v>
       </c>
       <c r="G93">
-        <v>-87.915700000000001</v>
+        <v>-80.020740000000004</v>
       </c>
       <c r="H93" t="s">
         <v>81</v>
@@ -7504,25 +7505,25 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="B94" t="s">
         <v>227</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D94" t="s">
         <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F94">
-        <v>36.019840000000002</v>
+        <v>42.102580000000003</v>
       </c>
       <c r="G94">
-        <v>-115.0797</v>
+        <v>-72.585350000000005</v>
       </c>
       <c r="H94" t="s">
         <v>81</v>
@@ -7572,52 +7573,52 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E95" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="F95">
-        <v>44.188740000000003</v>
+        <v>38.626669999999997</v>
       </c>
       <c r="G95">
-        <v>-77.381990000000002</v>
+        <v>-90.202500000000001</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q95" t="s">
         <v>81</v>
@@ -7640,52 +7641,52 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1975</v>
+        <v>1917</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="F96">
-        <v>42.102580000000003</v>
+        <v>38.626669999999997</v>
       </c>
       <c r="G96">
-        <v>-72.585350000000005</v>
+        <v>-90.202500000000001</v>
       </c>
       <c r="H96" t="s">
         <v>81</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="K96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O96" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>1935</v>
       </c>
       <c r="Q96" t="s">
         <v>81</v>
@@ -7708,25 +7709,25 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>1977</v>
+        <v>1992</v>
       </c>
       <c r="B97" t="s">
         <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D97" t="s">
         <v>81</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="F97">
-        <v>51.037500000000001</v>
+        <v>43.045360000000002</v>
       </c>
       <c r="G97">
-        <v>-114.05194</v>
+        <v>-76.146810000000002</v>
       </c>
       <c r="H97" t="s">
         <v>81</v>
@@ -7776,52 +7777,52 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
       <c r="F98">
-        <v>43.636609999999997</v>
+        <v>27.942779999999999</v>
       </c>
       <c r="G98">
-        <v>-79.413430000000005</v>
+        <v>-82.451939999999993</v>
       </c>
       <c r="H98" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="K98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q98" t="s">
         <v>81</v>
@@ -7844,25 +7845,25 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1981</v>
+        <v>1999</v>
       </c>
       <c r="B99" t="s">
         <v>227</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D99" t="s">
         <v>81</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="F99">
-        <v>41.240690000000001</v>
+        <v>30.542149999999999</v>
       </c>
       <c r="G99">
-        <v>-75.846320000000006</v>
+        <v>-97.818219999999997</v>
       </c>
       <c r="H99" t="s">
         <v>81</v>
@@ -7912,25 +7913,25 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>1984</v>
+        <v>1991</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
         <v>81</v>
       </c>
       <c r="E100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F100">
-        <v>35.372999999999998</v>
+        <v>41.651730000000001</v>
       </c>
       <c r="G100">
-        <v>-119.01139999999999</v>
+        <v>-83.535129999999995</v>
       </c>
       <c r="H100" t="s">
         <v>81</v>
@@ -7980,34 +7981,34 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1987</v>
+        <v>1917</v>
       </c>
       <c r="B101" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="F101">
-        <v>41.824199999999998</v>
+        <v>43.643329999999999</v>
       </c>
       <c r="G101">
-        <v>-71.416259999999994</v>
+        <v>-79.379170000000002</v>
       </c>
       <c r="H101" t="s">
         <v>81</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8022,13 +8023,13 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P101">
-        <v>0</v>
+        <v>1919</v>
       </c>
       <c r="Q101" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="R101">
         <v>0</v>
@@ -8048,52 +8049,52 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1990</v>
+        <v>1917</v>
       </c>
       <c r="B102" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F102">
-        <v>35.205269999999999</v>
+        <v>43.643329999999999</v>
       </c>
       <c r="G102">
-        <v>-80.794079999999994</v>
+        <v>-79.379170000000002</v>
       </c>
       <c r="H102" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O102" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P102">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q102" t="s">
         <v>81</v>
@@ -8116,25 +8117,25 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1992</v>
+        <v>1978</v>
       </c>
       <c r="B103" t="s">
         <v>227</v>
       </c>
       <c r="C103" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
         <v>81</v>
       </c>
       <c r="E103" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F103">
-        <v>43.045360000000002</v>
+        <v>43.636609999999997</v>
       </c>
       <c r="G103">
-        <v>-76.146810000000002</v>
+        <v>-79.413430000000005</v>
       </c>
       <c r="H103" t="s">
         <v>81</v>
@@ -8184,34 +8185,34 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1994</v>
+        <v>1919</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D104" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="F104">
-        <v>41.497219999999999</v>
+        <v>43.643329999999999</v>
       </c>
       <c r="G104">
-        <v>-81.686449999999994</v>
+        <v>-79.379170000000002</v>
       </c>
       <c r="H104" t="s">
         <v>81</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>0.496</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -8226,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="O104" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P104">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="Q104" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="R104">
         <v>0</v>
@@ -8252,25 +8253,25 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>1994</v>
+        <v>2021</v>
       </c>
       <c r="B105" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C105" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="D105" t="s">
         <v>81</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F105">
-        <v>41.593269999999997</v>
+        <v>46.32235</v>
       </c>
       <c r="G105">
-        <v>-93.619540000000001</v>
+        <v>-72.589669999999998</v>
       </c>
       <c r="H105" t="s">
         <v>81</v>
@@ -8326,19 +8327,19 @@
         <v>227</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D106" t="s">
         <v>81</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="F106">
-        <v>49.886240000000001</v>
+        <v>32.218389999999999</v>
       </c>
       <c r="G106">
-        <v>-97.33211</v>
+        <v>-110.97255</v>
       </c>
       <c r="H106" t="s">
         <v>81</v>
@@ -8388,25 +8389,25 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C107" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="D107" t="s">
         <v>81</v>
       </c>
       <c r="E107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F107">
-        <v>32.218389999999999</v>
+        <v>36.153329999999997</v>
       </c>
       <c r="G107">
-        <v>-110.97255</v>
+        <v>-95.995090000000005</v>
       </c>
       <c r="H107" t="s">
         <v>81</v>
@@ -8456,25 +8457,25 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>1995</v>
+        <v>1981</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C108" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
         <v>81</v>
       </c>
       <c r="E108" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F108">
-        <v>42.271070000000002</v>
+        <v>40.703220000000002</v>
       </c>
       <c r="G108">
-        <v>-89.094859999999997</v>
+        <v>-111.94837</v>
       </c>
       <c r="H108" t="s">
         <v>81</v>
@@ -8524,25 +8525,25 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="B109" t="s">
         <v>227</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D109" t="s">
         <v>81</v>
       </c>
       <c r="E109" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F109">
-        <v>42.962910000000001</v>
+        <v>43.104990000000001</v>
       </c>
       <c r="G109">
-        <v>-85.670019999999994</v>
+        <v>-75.231920000000002</v>
       </c>
       <c r="H109" t="s">
         <v>81</v>
@@ -8592,52 +8593,52 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1996</v>
+        <v>1970</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="D110" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="E110" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="F110">
-        <v>40.603250000000003</v>
+        <v>49.27778</v>
       </c>
       <c r="G110">
-        <v>-75.47148</v>
+        <v>-123.10889</v>
       </c>
       <c r="H110" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="M110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N110">
         <v>0</v>
       </c>
       <c r="O110" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q110" t="s">
         <v>81</v>
@@ -8660,52 +8661,52 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1996</v>
+        <v>2016</v>
       </c>
       <c r="B111" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="D111" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="E111" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="F111">
-        <v>37.33278</v>
+        <v>36.102780000000003</v>
       </c>
       <c r="G111">
-        <v>-121.90111</v>
+        <v>-115.17833</v>
       </c>
       <c r="H111" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="K111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L111">
-        <v>0</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P111">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q111" t="s">
         <v>81</v>
@@ -8728,52 +8729,52 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1998</v>
+        <v>1974</v>
       </c>
       <c r="B112" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E112" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F112">
-        <v>43.104990000000001</v>
+        <v>38.898060000000001</v>
       </c>
       <c r="G112">
-        <v>-75.231920000000002</v>
+        <v>-77.020830000000004</v>
       </c>
       <c r="H112" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="L112">
-        <v>0</v>
+        <v>0.65300000000000002</v>
       </c>
       <c r="M112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P112">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q112" t="s">
         <v>81</v>
@@ -8796,25 +8797,25 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1999</v>
+        <v>1981</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C113" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
         <v>81</v>
       </c>
       <c r="E113" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F113">
-        <v>30.542149999999999</v>
+        <v>40.065710000000003</v>
       </c>
       <c r="G113">
-        <v>-97.818219999999997</v>
+        <v>-80.722440000000006</v>
       </c>
       <c r="H113" t="s">
         <v>81</v>
@@ -8864,25 +8865,25 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="B114" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D114" t="s">
         <v>81</v>
       </c>
       <c r="E114" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="F114">
-        <v>32.756010000000003</v>
+        <v>37.683819999999997</v>
       </c>
       <c r="G114">
-        <v>-117.20923999999999</v>
+        <v>-97.33032</v>
       </c>
       <c r="H114" t="s">
         <v>81</v>
@@ -8932,25 +8933,25 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>2001</v>
+        <v>1981</v>
       </c>
       <c r="B115" t="s">
         <v>227</v>
       </c>
       <c r="C115" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="D115" t="s">
         <v>81</v>
       </c>
       <c r="E115" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F115">
-        <v>41.173789999999997</v>
+        <v>41.240690000000001</v>
       </c>
       <c r="G115">
-        <v>-73.185479999999998</v>
+        <v>-75.846320000000006</v>
       </c>
       <c r="H115" t="s">
         <v>81</v>
@@ -9000,34 +9001,34 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="D116" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E116" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="F116">
-        <v>34.07347</v>
+        <v>49.892780000000002</v>
       </c>
       <c r="G116">
-        <v>-117.56458000000001</v>
+        <v>-97.143609999999995</v>
       </c>
       <c r="H116" t="s">
         <v>81</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>0.443</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -9042,13 +9043,13 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="P116">
-        <v>0</v>
+        <v>1996</v>
       </c>
       <c r="Q116" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="R116">
         <v>0</v>
@@ -9068,40 +9069,40 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="B117" t="s">
-        <v>227</v>
+        <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D117" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E117" t="s">
-        <v>151</v>
+        <v>62</v>
       </c>
       <c r="F117">
-        <v>40.444710000000001</v>
+        <v>49.892780000000002</v>
       </c>
       <c r="G117">
-        <v>-104.98831</v>
+        <v>-97.143609999999995</v>
       </c>
       <c r="H117" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L117">
-        <v>0</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -9110,10 +9111,10 @@
         <v>0</v>
       </c>
       <c r="O117" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q117" t="s">
         <v>81</v>
@@ -9136,25 +9137,25 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B118" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D118" t="s">
         <v>81</v>
       </c>
       <c r="E118" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="F118">
-        <v>33.779879999999999</v>
+        <v>42.264989999999997</v>
       </c>
       <c r="G118">
-        <v>-116.3394</v>
+        <v>-71.796620000000004</v>
       </c>
       <c r="H118" t="s">
         <v>81</v>
@@ -9205,7 +9206,7 @@
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{1B183303-D547-E044-83B9-C6D958496D80}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q118">
-      <sortCondition ref="C1:C118"/>
+      <sortCondition ref="E1:E118"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
